--- a/data/intermediate/cs_w1_10/csm.validationcorrect.xlsx
+++ b/data/intermediate/cs_w1_10/csm.validationcorrect.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>SentenceID</t>
   </si>
@@ -53,6 +53,27 @@
   </si>
   <si>
     <t>Neutral-Senti</t>
+  </si>
+  <si>
+    <t>aggressive self glorification and a manipulative whitewash leave little to recommend .</t>
+  </si>
+  <si>
+    <t>downright transparent be the script endless assault of embarrassingly ham fisted sex joke that reek a rewrite design to garner film cooler pg 13 rat make it relic bygone era</t>
+  </si>
+  <si>
+    <t>this quiet introspective and entertain independent be worth see .</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -410,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N1"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,6 +476,138 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M2">
+        <v>0.25</v>
+      </c>
+      <c r="N2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>0.25</v>
+      </c>
+      <c r="M3">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="N3">
+        <v>15.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <v>0.1875</v>
+      </c>
+      <c r="M4">
+        <v>0.375</v>
+      </c>
+      <c r="N4">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/intermediate/cs_w1_10/csm.validationcorrect.xlsx
+++ b/data/intermediate/cs_w1_10/csm.validationcorrect.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>SentenceID</t>
   </si>
@@ -55,25 +55,22 @@
     <t>Neutral-Senti</t>
   </si>
   <si>
-    <t>aggressive self glorification and a manipulative whitewash leave little to recommend .</t>
+    <t>there be little to recommend snow dog unless one consider cliched dialogue and perverse escapism a source of high hilarity so you would have hard time watch this.</t>
   </si>
   <si>
     <t>downright transparent be the script endless assault of embarrassingly ham fisted sex joke that reek a rewrite design to garner film cooler pg 13 rat make it relic bygone era</t>
   </si>
   <si>
-    <t>this quiet introspective and entertain independent be worth see .</t>
-  </si>
-  <si>
     <t>Negative</t>
   </si>
   <si>
     <t>Neutral</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Positive</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -431,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -498,28 +495,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.275</v>
       </c>
       <c r="M2">
-        <v>0.25</v>
+        <v>0.328125</v>
       </c>
       <c r="N2">
-        <v>6.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -542,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -564,50 +561,6 @@
       </c>
       <c r="N3">
         <v>15.125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4">
-        <v>0.1875</v>
-      </c>
-      <c r="M4">
-        <v>0.375</v>
-      </c>
-      <c r="N4">
-        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/intermediate/cs_w1_10/csm.validationcorrect.xlsx
+++ b/data/intermediate/cs_w1_10/csm.validationcorrect.xlsx
@@ -55,10 +55,10 @@
     <t>Neutral-Senti</t>
   </si>
   <si>
-    <t>there be little to recommend snow dog unless one consider cliched dialogue and perverse escapism a source of high hilarity so you would have hard time watch this.</t>
-  </si>
-  <si>
-    <t>downright transparent be the script endless assault of embarrassingly ham fisted sex joke that reek a rewrite design to garner film cooler pg 13 rat make it relic bygone era</t>
+    <t>aggressive self glorification and a manipulative whitewash leave little to recommend .</t>
+  </si>
+  <si>
+    <t>come across a relic from bygone era and it convolution feel silly rather than plausible .</t>
   </si>
   <si>
     <t>Negative</t>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -507,16 +507,16 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L2">
-        <v>0.275</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.328125</v>
+        <v>0.25</v>
       </c>
       <c r="N2">
-        <v>11</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -554,13 +554,13 @@
         <v>18</v>
       </c>
       <c r="L3">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M3">
-        <v>0.2083333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="N3">
-        <v>15.125</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
